--- a/NEW HR/REMOLLENO, MICHELLE UBALDO.xlsx
+++ b/NEW HR/REMOLLENO, MICHELLE UBALDO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>9/19,20</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>BDAY 5/12/23</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +947,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,7 +1011,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,7 +1071,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1137,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1200,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1298,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1357,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1422,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1465,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1540,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1726,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1792,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1850,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1916,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1972,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2047,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2090,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2156,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2212,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,9 +2658,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A31" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2825,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.167000000000002</v>
+        <v>32.917000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2829,7 +2835,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.167000000000002</v>
+        <v>49.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3681,15 +3687,19 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>44958</v>
+      </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
@@ -3697,15 +3707,19 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="40">
+        <v>44986</v>
+      </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
@@ -3713,23 +3727,33 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="13"/>
+      <c r="A53" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="40">
+        <v>45047</v>
+      </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>

--- a/NEW HR/REMOLLENO, MICHELLE UBALDO.xlsx
+++ b/NEW HR/REMOLLENO, MICHELLE UBALDO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>BDAY 5/12/23</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +950,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1014,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1074,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1140,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1203,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1301,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1360,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1425,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1468,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1543,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1729,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1795,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1853,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1919,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1975,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2050,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2093,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2159,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2215,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2663,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2828,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.917000000000002</v>
+        <v>34.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2835,7 +2838,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.917000000000002</v>
+        <v>50.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3755,13 +3758,15 @@
         <v>45047</v>
       </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -3769,8 +3774,12 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
@@ -3779,7 +3788,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="39">
+        <v>1</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
